--- a/biology/Médecine/Acide_glycyrrhizique/Acide_glycyrrhizique.xlsx
+++ b/biology/Médecine/Acide_glycyrrhizique/Acide_glycyrrhizique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide glycyrrhizique (acide glycyrrhizinique, glycyrrhizine, liquorice ou licorice) est un principe actif (saponine) de la réglisse. C'est un hétéroside principalement connu pour sa saveur sucrée d'où son utilisation comme édulcorant.
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure
-L’acide glycyrrhizique est hétéroside, dont la partie aglycone (un terpène acide) est relié à un ose acide dimère de l'acide glucuronique. Le nom sémantique est : (3-beta, 20-beta)-20-carboxy-11-oxo-30-norolean-12-en-3-yl 2-O-beta-D-glucopyranuronosyl-alpha-D-glucopyranosiduronic. 
-Propriétés
-L’acide glycyrrhizique n’est pas spécialement soluble dans l’eau, mais son sel d’ammonium l’est dans une eau dont le pH est supérieur à 4,5.
-L’acide glycyrrhizique est plus sucré que le saccharose, en effet son pouvoir sucrant est de 30 à 50 fois supérieur à celui du saccharose à poids égal. Cependant son profil sucré est différent de celui du sucre, la sensation de sucré est plus tardive en bouche et est persistante avec un arrière goût caractéristique.
-Pharmacologie
-La substance chimique est douée de propriétés anti-inflammatoires[3], qui peuvent être mises à profit notamment dans le traitement du prurit de l'érythème fessier ou solaire (Cf fiche BIAM). Diverses spécialités en-contiennent comme des protecteurs cutanés (Irrisedermyl des Laboratoires Cooper, des pâtes gingivales (Arthrodont des Laboratoires Pierre Fabre) ou diverses pastilles à sucer contre les maux de gorge (Humex, Hexalyse…).
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’acide glycyrrhizique est hétéroside, dont la partie aglycone (un terpène acide) est relié à un ose acide dimère de l'acide glucuronique. Le nom sémantique est : (3-beta, 20-beta)-20-carboxy-11-oxo-30-norolean-12-en-3-yl 2-O-beta-D-glucopyranuronosyl-alpha-D-glucopyranosiduronic. 
 </t>
         </is>
       </c>
@@ -546,15 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>L'intoxication par la glycyrrhizine</t>
+          <t>Structure et propriétés</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La glycyrrhizine peut provoquer de l'hypertension artérielle. Elle agit sur l'inhibition d'une enzyme, la 11β-hydroxystéroïde deshydrogénase (type 2), normalement présente au niveau de certaines cellules rénales. Cet enzyme permet de métaboliser le cortisol en cortisone afin de laisser l'aldostérone se fixer à son récepteur nucléaire (le récepteur des minéralocorticoïdes) lui permettant de réguler la réabsorption de sodium ainsi que d'eau. En inactivant la 11β-hydroxystéroïde deshydrogénase (type 2), la glycyrrhizine permet l'activation permanente du récepteur de l'aldostérone par le cortisol (10 à 100 fois plus présent que l'aldostérone dans le plasma), et ainsi une réabsorption non régulée et excessive de sodium et donc d'eau, aboutissant à l'hypertension par augmentation de la volémie. L'excès de liquorice reproduit le tableau d'un adénome de Conn. L'intoxication est secondaire à la consommation abondante (supérieure à un gramme par jour de glycyrrhizine) de boissons à base de réglisse (pour la plupart des pastis sans alcool) ou de produits solides (bâtons de réglisse...).
-En 1993, une valeur provisoire de LOAEL (Lowest Observable Adverse Effect Level (en) ; dose minimale pour observer un effet indésirable) de 100 mg/jour a été proposé par le Conseil nordique des ministres et propose une dose journalière admissible (DJA) de 1-10 mg/personne/jour[4].
-EN 2003, le comité scientifique de l'alimentation humaine européen (SCOF) a donné l'avis de garder la valeur limite de consommation de l'acide glycyrrhizique, à 100 mg/jour précédemment établie en 1991 par le même comité, considérant que cette limite fournit une protection satisfaisante pour la majorité de la population[4].
-De plus, une étude publiée dans le New England Journal of Medicine a noté que lorsque les chercheurs ont fait consommer à des sujets d'essai le principal composant de la réglisse, l'acide glycyrrhizique, on a constaté une diminution significative des niveaux de testostérone totale après seulement sept grammes de consommation quotidienne pendant une période de quatre jours[5].
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’acide glycyrrhizique n’est pas spécialement soluble dans l’eau, mais son sel d’ammonium l’est dans une eau dont le pH est supérieur à 4,5.
+L’acide glycyrrhizique est plus sucré que le saccharose, en effet son pouvoir sucrant est de 30 à 50 fois supérieur à celui du saccharose à poids égal. Cependant son profil sucré est différent de celui du sucre, la sensation de sucré est plus tardive en bouche et est persistante avec un arrière goût caractéristique.
 </t>
         </is>
       </c>
@@ -580,18 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations dans différents pays</t>
+          <t>Structure et propriétés</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aux États-Unis, cet acide est autorisé et utilisé comme agent du goût (et non comme adoucissant) dans certaines sucreries et dans des produits dérivés du tabac. L'acide a le statut GRAS (Generally Recognized as Safe (en)) depuis 1985, sans limite d'utilisation dans les aliments[4].
-Au Japon, il est utilisé comme édulcorant (généralement avec d’autres produits naturels). Cependant, le gouvernement japonais a émis une recommandation limitant sa consommation à 200 mg par jour.
-En France
-En 2003, un avis du comité scientifique de l'alimentation humaine européen a mis en évidence les risques liés à l'ingestion d'acide glycyrrhizinique et son sel d'ammonium pour les personnes souffrant d'hypertension[4]. 
-L'acide glycyrrhizinique et son sel d'ammonium (fabriqué à partir d'extraits aqueux de réglisse) sont utilisés dans la fabrication des gommes à mâcher à base de réglisse, du thé aux herbes et d'autres boissons.
-Une directive du 29 avril 2004 a rendu obligatoire l'apposition sur l'emballage des denrées les contenant d'une mention visant à informer les consommateurs de la présence de réglisse, sauf dans les cas où cet ingrédient est déjà mentionné dans la liste des ingrédients[6].
-Ils sont utilisés comme exhausteur de goût dans les aliments (via les arômes alimentaires et son numéro E est le 958. Ils font partie du registre des substances aromatisantes adopté par la Commission en 1999 (1999/217/EC)[4].
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La substance chimique est douée de propriétés anti-inflammatoires, qui peuvent être mises à profit notamment dans le traitement du prurit de l'érythème fessier ou solaire (Cf fiche BIAM). Diverses spécialités en-contiennent comme des protecteurs cutanés (Irrisedermyl des Laboratoires Cooper, des pâtes gingivales (Arthrodont des Laboratoires Pierre Fabre) ou diverses pastilles à sucer contre les maux de gorge (Humex, Hexalyse…).
 </t>
         </is>
       </c>
@@ -617,10 +633,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>L'intoxication par la glycyrrhizine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glycyrrhizine peut provoquer de l'hypertension artérielle. Elle agit sur l'inhibition d'une enzyme, la 11β-hydroxystéroïde deshydrogénase (type 2), normalement présente au niveau de certaines cellules rénales. Cet enzyme permet de métaboliser le cortisol en cortisone afin de laisser l'aldostérone se fixer à son récepteur nucléaire (le récepteur des minéralocorticoïdes) lui permettant de réguler la réabsorption de sodium ainsi que d'eau. En inactivant la 11β-hydroxystéroïde deshydrogénase (type 2), la glycyrrhizine permet l'activation permanente du récepteur de l'aldostérone par le cortisol (10 à 100 fois plus présent que l'aldostérone dans le plasma), et ainsi une réabsorption non régulée et excessive de sodium et donc d'eau, aboutissant à l'hypertension par augmentation de la volémie. L'excès de liquorice reproduit le tableau d'un adénome de Conn. L'intoxication est secondaire à la consommation abondante (supérieure à un gramme par jour de glycyrrhizine) de boissons à base de réglisse (pour la plupart des pastis sans alcool) ou de produits solides (bâtons de réglisse...).
+En 1993, une valeur provisoire de LOAEL (Lowest Observable Adverse Effect Level (en) ; dose minimale pour observer un effet indésirable) de 100 mg/jour a été proposé par le Conseil nordique des ministres et propose une dose journalière admissible (DJA) de 1-10 mg/personne/jour.
+EN 2003, le comité scientifique de l'alimentation humaine européen (SCOF) a donné l'avis de garder la valeur limite de consommation de l'acide glycyrrhizique, à 100 mg/jour précédemment établie en 1991 par le même comité, considérant que cette limite fournit une protection satisfaisante pour la majorité de la population.
+De plus, une étude publiée dans le New England Journal of Medicine a noté que lorsque les chercheurs ont fait consommer à des sujets d'essai le principal composant de la réglisse, l'acide glycyrrhizique, on a constaté une diminution significative des niveaux de testostérone totale après seulement sept grammes de consommation quotidienne pendant une période de quatre jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acide_glycyrrhizique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_glycyrrhizique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations dans différents pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, cet acide est autorisé et utilisé comme agent du goût (et non comme adoucissant) dans certaines sucreries et dans des produits dérivés du tabac. L'acide a le statut GRAS (Generally Recognized as Safe (en)) depuis 1985, sans limite d'utilisation dans les aliments.
+Au Japon, il est utilisé comme édulcorant (généralement avec d’autres produits naturels). Cependant, le gouvernement japonais a émis une recommandation limitant sa consommation à 200 mg par jour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acide_glycyrrhizique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_glycyrrhizique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations dans différents pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, un avis du comité scientifique de l'alimentation humaine européen a mis en évidence les risques liés à l'ingestion d'acide glycyrrhizinique et son sel d'ammonium pour les personnes souffrant d'hypertension. 
+L'acide glycyrrhizinique et son sel d'ammonium (fabriqué à partir d'extraits aqueux de réglisse) sont utilisés dans la fabrication des gommes à mâcher à base de réglisse, du thé aux herbes et d'autres boissons.
+Une directive du 29 avril 2004 a rendu obligatoire l'apposition sur l'emballage des denrées les contenant d'une mention visant à informer les consommateurs de la présence de réglisse, sauf dans les cas où cet ingrédient est déjà mentionné dans la liste des ingrédients.
+Ils sont utilisés comme exhausteur de goût dans les aliments (via les arômes alimentaires et son numéro E est le 958. Ils font partie du registre des substances aromatisantes adopté par la Commission en 1999 (1999/217/EC).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acide_glycyrrhizique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_glycyrrhizique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La glycyrrhizine ammoniaquée figure sur la liste d'additifs dans les cigarettes.
 </t>
